--- a/Results_May_15_mostrecentupdateAugust3/sponge_surrogate_Current_Thesis.xlsx
+++ b/Results_May_15_mostrecentupdateAugust3/sponge_surrogate_Current_Thesis.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="24" windowWidth="11460" windowHeight="9288"/>
+    <workbookView xWindow="480" yWindow="24" windowWidth="11460" windowHeight="9288" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sponge_surrogate_Current_Thesis" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>K</t>
   </si>
@@ -47,6 +48,21 @@
   </si>
   <si>
     <t>rugosity</t>
+  </si>
+  <si>
+    <t>Model Name</t>
+  </si>
+  <si>
+    <t>K*</t>
+  </si>
+  <si>
+    <t>Delta AICc</t>
+  </si>
+  <si>
+    <t>Akaike weight</t>
+  </si>
+  <si>
+    <t>Log-likelihood</t>
   </si>
 </sst>
 </file>
@@ -54,9 +70,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,8 +221,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,8 +409,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -518,6 +547,17 @@
       <right/>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -567,15 +607,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -920,7 +963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="A1:H4"/>
     </sheetView>
   </sheetViews>
@@ -1044,4 +1087,99 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6">
+        <v>967.52429941631897</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.96069725668266603</v>
+      </c>
+      <c r="F2" s="6">
+        <v>-480.68714970815898</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6">
+        <v>973.91707281894003</v>
+      </c>
+      <c r="D3" s="6">
+        <v>6.3927734026219696</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3.9301890756116002E-2</v>
+      </c>
+      <c r="F3" s="6">
+        <v>-483.88353640947003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7">
+        <v>995.39414915953296</v>
+      </c>
+      <c r="D4" s="7">
+        <v>27.8698497432149</v>
+      </c>
+      <c r="E4" s="5">
+        <v>8.5256121772568703E-7</v>
+      </c>
+      <c r="F4" s="7">
+        <v>-494.622074579767</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>